--- a/saved_strategies/user_settings_testing.xlsx
+++ b/saved_strategies/user_settings_testing.xlsx
@@ -572,10 +572,12 @@
       <c r="D2" t="n">
         <v>180</v>
       </c>
-      <c r="E2" t="inlineStr"/>
+      <c r="E2" t="n">
+        <v>57.8</v>
+      </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>2024-02-09</t>
         </is>
       </c>
       <c r="G2" t="inlineStr"/>

--- a/saved_strategies/user_settings_testing.xlsx
+++ b/saved_strategies/user_settings_testing.xlsx
@@ -573,18 +573,28 @@
         <v>180</v>
       </c>
       <c r="E2" t="n">
-        <v>57.8</v>
+        <v>59.7</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
           <t>2024-02-09</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
+      <c r="G2" t="n">
+        <v>10</v>
+      </c>
+      <c r="H2" t="n">
+        <v>500</v>
+      </c>
+      <c r="I2" t="n">
+        <v>95</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="inlineStr"/>
       <c r="N2" t="inlineStr"/>
@@ -598,12 +608,12 @@
       <c r="V2" t="inlineStr"/>
       <c r="W2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
